--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438390.336940355</v>
+        <v>438518.3920625235</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162198</v>
+        <v>11821355.91763806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.51043731</v>
+        <v>10162932.89091066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6439102.586582922</v>
+        <v>6269966.852991856</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.64204939395775</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -671,10 +673,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>89.93000512048089</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>140.5488181521908</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.733818067947911</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>386.8650699901663</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>104.5142712582414</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1136,16 +1138,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>40.3950232139772</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>6.338580986754317</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868341</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>98.94574135710867</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1345,13 +1347,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>214.0246150492574</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1376,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>40.39502321397722</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>238.4387629148338</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>147.5771360229987</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>181.2986684744096</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>27.30162877263755</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>228.2601210751802</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2062,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>121.621013371371</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2242,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>70.11854311890966</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -2257,7 +2259,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.0591948939934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2320,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>286.4809802228989</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2.129193841209417</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2558,19 +2560,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>386.8650699901663</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11.89439304893042</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>125.0452771061376</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>93.87738435325667</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>392.5647472501408</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2801,10 +2803,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>7.816547588502612</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2955,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>149.3339408773905</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752321</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3038,10 +3040,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2658873081456</v>
+        <v>7.816547588502837</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -3241,19 +3243,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>63.02663910289041</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>197.5289107028771</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388.3430365919147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>308.4588457078093</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22.16954853629551</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>289.5630439302703</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.83104910464707</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3566,10 +3568,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>66.84053760131773</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.6240463898355</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3724,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>14.02439290772386</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>40.3950232139772</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3907,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>146.096337622853</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6341148424379388</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>390.1527797502169</v>
+        <v>155.9251219450839</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4112,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>106.1331548337414</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1691.724233752687</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="C2" t="n">
-        <v>1281.599643065957</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="D2" t="n">
-        <v>877.1357131590178</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E2" t="n">
-        <v>462.7954976759145</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4361,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1997.415892469515</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1997.415892469515</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.493980615271</v>
+        <v>1997.415892469515</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.493980615271</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1704.493980615271</v>
+        <v>1596.772494638468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N3" t="n">
-        <v>1014.414276561226</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1101.974066676486</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1569.412650868686</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1383.020882748597</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.772214130362</v>
+        <v>1143.472143725299</v>
       </c>
       <c r="U4" t="n">
-        <v>1101.974066676486</v>
+        <v>860.673996271423</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.974066676486</v>
+        <v>586.7882512109448</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.974066676486</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.974066676486</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.974066676486</v>
+        <v>307.7185867198192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>1171.526457795782</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.908511128883</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.908511128883</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E5" t="n">
-        <v>853.5682956457795</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F5" t="n">
-        <v>432.537883599467</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4607,10 +4609,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1982.684310512181</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1581.747637460271</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M6" t="n">
-        <v>1207.227134123859</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="N6" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4765,10 +4767,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492.6927300678241</v>
+        <v>1277.096428763702</v>
       </c>
       <c r="C8" t="n">
-        <v>82.56813938109417</v>
+        <v>866.9718380769724</v>
       </c>
       <c r="D8" t="n">
-        <v>41.76508562960205</v>
+        <v>462.5079081700329</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>48.16769268692963</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>48.16769268692963</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M8" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4841,13 +4843,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1303.850582784223</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>902.9139097323135</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
         <v>234.5779431922353</v>
@@ -4887,13 +4889,13 @@
         <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M9" t="n">
-        <v>1268.263812524886</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N9" t="n">
-        <v>1785.106747191211</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O9" t="n">
         <v>2058.694762117472</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1059.950756782464</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="X10" t="n">
-        <v>1059.950756782464</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="Y10" t="n">
-        <v>1059.950756782464</v>
+        <v>372.3531027449755</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>451.8896763163319</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C11" t="n">
-        <v>41.76508562960205</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960205</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L11" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N11" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O11" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5075,16 +5077,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V11" t="n">
-        <v>2047.45122772861</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>1663.690926863779</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1263.047529032731</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>862.1108559808214</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959273</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962253</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O12" t="n">
-        <v>1192.007362767164</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P12" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5224,25 +5226,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>696.9525363802143</v>
+        <v>1171.477728391927</v>
       </c>
       <c r="C14" t="n">
-        <v>696.9525363802143</v>
+        <v>1171.477728391927</v>
       </c>
       <c r="D14" t="n">
-        <v>696.9525363802143</v>
+        <v>767.0137984849873</v>
       </c>
       <c r="E14" t="n">
-        <v>282.612320897111</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F14" t="n">
-        <v>282.612320897111</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G14" t="n">
-        <v>282.612320897111</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>733.4074053521598</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>1250.250340018485</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
-        <v>1250.250340018485</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5303,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U14" t="n">
-        <v>1831.193789739612</v>
+        <v>1581.698908056416</v>
       </c>
       <c r="V14" t="n">
-        <v>1481.356235076093</v>
+        <v>1581.698908056416</v>
       </c>
       <c r="W14" t="n">
-        <v>1097.595934211262</v>
+        <v>1581.698908056416</v>
       </c>
       <c r="X14" t="n">
-        <v>696.9525363802143</v>
+        <v>1581.698908056416</v>
       </c>
       <c r="Y14" t="n">
-        <v>696.9525363802143</v>
+        <v>1581.698908056416</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L15" t="n">
-        <v>675.1644281008383</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M15" t="n">
-        <v>1192.007362767164</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N15" t="n">
-        <v>1192.007362767164</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O15" t="n">
-        <v>1192.007362767164</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P15" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q15" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5391,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5476,10 +5478,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>1354.656425951751</v>
+      </c>
+      <c r="C17" t="n">
+        <v>944.5318352650212</v>
+      </c>
+      <c r="D17" t="n">
+        <v>944.5318352650212</v>
+      </c>
+      <c r="E17" t="n">
+        <v>944.5318352650212</v>
+      </c>
+      <c r="F17" t="n">
+        <v>761.4018671090519</v>
+      </c>
+      <c r="G17" t="n">
+        <v>352.673583001884</v>
+      </c>
+      <c r="H17" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="I17" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="J17" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="K17" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="L17" t="n">
+        <v>558.6080202959272</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1054.568412147451</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1571.411346813777</v>
+      </c>
+      <c r="O17" t="n">
         <v>2088.254281480102</v>
       </c>
-      <c r="C17" t="n">
-        <v>1690.327927173125</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1285.863997266186</v>
-      </c>
-      <c r="E17" t="n">
-        <v>871.5237817830823</v>
-      </c>
-      <c r="F17" t="n">
-        <v>450.4933697367699</v>
-      </c>
-      <c r="G17" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="H17" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="I17" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="J17" t="n">
-        <v>41.76508562960205</v>
-      </c>
-      <c r="K17" t="n">
-        <v>558.6080202959273</v>
-      </c>
-      <c r="L17" t="n">
-        <v>733.4074053521598</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1250.250340018485</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1250.250340018485</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1767.09327468481</v>
-      </c>
       <c r="P17" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
         <v>2088.254281480102</v>
@@ -5549,16 +5551,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951751</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>1345.178620845658</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>1345.178620845658</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1901.862513360012</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.598203386633</v>
+        <v>1901.862513360012</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.800055932758</v>
+        <v>1619.064365906136</v>
       </c>
       <c r="V19" t="n">
-        <v>783.9143108722797</v>
+        <v>1345.178620845658</v>
       </c>
       <c r="W19" t="n">
-        <v>504.844646381154</v>
+        <v>1345.178620845658</v>
       </c>
       <c r="X19" t="n">
-        <v>266.5007842408373</v>
+        <v>1345.178620845658</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>1345.178620845658</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1404.09619341189</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C20" t="n">
-        <v>993.9716027251599</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D20" t="n">
-        <v>589.5076728182204</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E20" t="n">
-        <v>175.1674573351171</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>52.31794887918674</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>590.4774499882262</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>1121.948882827788</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>1121.948882827788</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N20" t="n">
-        <v>1121.948882827788</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O20" t="n">
-        <v>1765.579739244893</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P20" t="n">
-        <v>2294.736437164045</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>2615.897443959337</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>2215.254046128289</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>1814.317373076379</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>52.31794887918674</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>52.31794887918674</v>
+        <v>704.723947463468</v>
       </c>
       <c r="M21" t="n">
-        <v>699.7525662591225</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N21" t="n">
-        <v>1347.187183639058</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O21" t="n">
-        <v>1994.621801018994</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P21" t="n">
-        <v>2098.807144729687</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>369.1757951481867</v>
+        <v>1388.428029276236</v>
       </c>
       <c r="C22" t="n">
-        <v>369.1757951481867</v>
+        <v>1388.428029276236</v>
       </c>
       <c r="D22" t="n">
-        <v>369.1757951481867</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E22" t="n">
-        <v>369.1757951481867</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F22" t="n">
-        <v>369.1757951481867</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G22" t="n">
-        <v>201.9254040737301</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H22" t="n">
-        <v>52.31794887918674</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1581.716845500037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S22" t="n">
-        <v>1581.716845500037</v>
+        <v>1901.862513360012</v>
       </c>
       <c r="T22" t="n">
-        <v>1581.716845500037</v>
+        <v>1662.313774336714</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.918698046161</v>
+        <v>1662.313774336714</v>
       </c>
       <c r="V22" t="n">
-        <v>1025.032952985683</v>
+        <v>1388.428029276236</v>
       </c>
       <c r="W22" t="n">
-        <v>745.9632884945572</v>
+        <v>1388.428029276236</v>
       </c>
       <c r="X22" t="n">
-        <v>507.6194263542406</v>
+        <v>1388.428029276236</v>
       </c>
       <c r="Y22" t="n">
-        <v>369.1757951481867</v>
+        <v>1388.428029276236</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2453.126100861739</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C23" t="n">
-        <v>2043.001510175009</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D23" t="n">
-        <v>1638.53758026807</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E23" t="n">
-        <v>1224.197364784966</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>803.1669527386539</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4386686314861</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>3954.302078907063</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>3954.302078907063</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>3954.302078907063</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>3664.927351409186</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>3264.283953578138</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>2863.347280526228</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2808.850208996239</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>2674.855137745184</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>2557.957979964577</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>2437.465163956905</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>2328.50528413941</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>2221.515171453749</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>2150.767958489465</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>2130.019367109705</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>2130.019367109705</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>2130.019367109705</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="L24" t="n">
-        <v>2130.019367109705</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M24" t="n">
-        <v>2598.893380302693</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N24" t="n">
-        <v>3472.55147241431</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O24" t="n">
-        <v>4176.508562960204</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P24" t="n">
-        <v>4176.508562960204</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q24" t="n">
-        <v>4176.508562960204</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>4068.518553074513</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>3909.176689261521</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>3711.82587839974</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>3498.114351392774</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>3284.881183129103</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>3108.555201267995</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>2949.153241631825</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.5301712592041</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C25" t="n">
-        <v>83.5301712592041</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D25" t="n">
-        <v>83.5301712592041</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E25" t="n">
-        <v>83.5301712592041</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F25" t="n">
-        <v>83.5301712592041</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G25" t="n">
-        <v>83.5301712592041</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H25" t="n">
-        <v>83.5301712592041</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>97.61272066441461</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1650483866526</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
-        <v>512.0621486667131</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>801.3262051072064</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1082.164987501457</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1341.725597827931</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>1547.401038077543</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1527.656349555454</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1341.264581435364</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1101.715842412066</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U25" t="n">
-        <v>1099.56514156236</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V25" t="n">
-        <v>825.6793965018817</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W25" t="n">
-        <v>546.609732010756</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X25" t="n">
-        <v>308.2658698704394</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.5301712592041</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1678.033101815613</v>
+        <v>1277.096428763702</v>
       </c>
       <c r="C26" t="n">
-        <v>1267.908511128883</v>
+        <v>866.9718380769724</v>
       </c>
       <c r="D26" t="n">
-        <v>1267.908511128883</v>
+        <v>462.5079081700329</v>
       </c>
       <c r="E26" t="n">
-        <v>853.5682956457795</v>
+        <v>462.5079081700329</v>
       </c>
       <c r="F26" t="n">
-        <v>432.537883599467</v>
+        <v>462.5079081700329</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>53.77962406286508</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L26" t="n">
-        <v>1075.450954962253</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M26" t="n">
-        <v>1250.250340018485</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N26" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O26" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q26" t="n">
         <v>2088.254281480102</v>
@@ -6269,7 +6271,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y26" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>537.7254774811262</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M27" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N27" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.4732336329616</v>
+        <v>1531.843189264714</v>
       </c>
       <c r="C28" t="n">
-        <v>810.4732336329616</v>
+        <v>1360.749816826431</v>
       </c>
       <c r="D28" t="n">
-        <v>684.1648729196913</v>
+        <v>1201.255172149341</v>
       </c>
       <c r="E28" t="n">
-        <v>523.2540577880108</v>
+        <v>1040.34435701766</v>
       </c>
       <c r="F28" t="n">
-        <v>358.622931898602</v>
+        <v>875.7132311282514</v>
       </c>
       <c r="G28" t="n">
-        <v>191.3725408241454</v>
+        <v>708.4628400537948</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L28" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M28" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N28" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O28" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P28" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q28" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R28" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S28" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T28" t="n">
-        <v>1331.615243227154</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U28" t="n">
-        <v>1048.817095773278</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V28" t="n">
-        <v>1048.817095773278</v>
+        <v>1814.368536419624</v>
       </c>
       <c r="W28" t="n">
-        <v>1048.817095773278</v>
+        <v>1814.368536419624</v>
       </c>
       <c r="X28" t="n">
-        <v>810.4732336329616</v>
+        <v>1814.368536419624</v>
       </c>
       <c r="Y28" t="n">
-        <v>810.4732336329616</v>
+        <v>1719.542895658758</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1691.724233752687</v>
+        <v>1679.422105813543</v>
       </c>
       <c r="C29" t="n">
-        <v>1281.599643065957</v>
+        <v>1269.297515126813</v>
       </c>
       <c r="D29" t="n">
-        <v>877.1357131590178</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E29" t="n">
-        <v>462.7954976759145</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>733.4074053521598</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L29" t="n">
-        <v>733.4074053521598</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M29" t="n">
-        <v>733.4074053521598</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N29" t="n">
-        <v>1250.250340018485</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O29" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q29" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
@@ -6497,16 +6499,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>2080.358778865453</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>2080.358778865453</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>2080.358778865453</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>1679.422105813543</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959273</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N30" t="n">
-        <v>1075.450954962253</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O30" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>880.7911218201521</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C31" t="n">
-        <v>709.6977493818686</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D31" t="n">
-        <v>558.8553848592519</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E31" t="n">
-        <v>558.8553848592519</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>558.8553848592519</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>558.8553848592519</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T31" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U31" t="n">
-        <v>1805.456134026226</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V31" t="n">
-        <v>1531.570388965748</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W31" t="n">
-        <v>1531.570388965748</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X31" t="n">
-        <v>1293.226526825432</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="Y31" t="n">
-        <v>1068.490828214196</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1678.033101815613</v>
+        <v>1687.317608428192</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.908511128883</v>
+        <v>1277.193017741462</v>
       </c>
       <c r="D32" t="n">
-        <v>863.4445812219433</v>
+        <v>872.7290878345225</v>
       </c>
       <c r="E32" t="n">
-        <v>449.10436573884</v>
+        <v>458.3888723514192</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962694</v>
       </c>
       <c r="L32" t="n">
-        <v>497.1688317915616</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N32" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O32" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6743,7 +6745,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y32" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6773,25 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M33" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O33" t="n">
         <v>1592.293889628578</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>201.259730306692</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C34" t="n">
-        <v>201.259730306692</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76508562960205</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="E34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6880,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T34" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U34" t="n">
-        <v>777.1526093285881</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V34" t="n">
-        <v>503.2668642681101</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="W34" t="n">
-        <v>439.6035924470086</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="X34" t="n">
-        <v>201.259730306692</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.259730306692</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1695.988587952916</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="C35" t="n">
-        <v>1285.863997266186</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="D35" t="n">
-        <v>1285.863997266186</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E35" t="n">
-        <v>871.5237817830823</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N35" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O35" t="n">
         <v>2088.254281480102</v>
@@ -6971,16 +6973,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>1776.679689856052</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M36" t="n">
-        <v>751.4208778585605</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N36" t="n">
-        <v>1025.008892784821</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O36" t="n">
-        <v>1541.851827451147</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>822.9044021853606</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C37" t="n">
-        <v>822.9044021853606</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D37" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E37" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F37" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7120,25 +7122,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1384.772214130362</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U37" t="n">
-        <v>1101.974066676486</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V37" t="n">
-        <v>1101.974066676486</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W37" t="n">
-        <v>822.9044021853606</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X37" t="n">
-        <v>822.9044021853606</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y37" t="n">
-        <v>822.9044021853606</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>462.7954976759145</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="C38" t="n">
-        <v>462.7954976759145</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D38" t="n">
-        <v>462.7954976759145</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E38" t="n">
-        <v>462.7954976759145</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N38" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O38" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
         <v>2088.254281480102</v>
@@ -7199,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2076.303726828944</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1854.097242775802</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U38" t="n">
-        <v>1597.036751035313</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V38" t="n">
-        <v>1247.199196371793</v>
+        <v>1516.210242763441</v>
       </c>
       <c r="W38" t="n">
-        <v>863.4388955069619</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X38" t="n">
-        <v>462.7954976759145</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="Y38" t="n">
-        <v>462.7954976759145</v>
+        <v>731.5132688467</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L39" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M39" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N39" t="n">
-        <v>675.1644281008379</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O39" t="n">
-        <v>1192.007362767163</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P39" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R39" t="n">
         <v>2088.254281480102</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>746.5440862541582</v>
+        <v>309.3668567106114</v>
       </c>
       <c r="C40" t="n">
-        <v>746.5440862541582</v>
+        <v>309.3668567106114</v>
       </c>
       <c r="D40" t="n">
-        <v>587.0494415770681</v>
+        <v>309.3668567106114</v>
       </c>
       <c r="E40" t="n">
-        <v>426.1386264453876</v>
+        <v>148.4560415789309</v>
       </c>
       <c r="F40" t="n">
-        <v>358.622931898602</v>
+        <v>148.4560415789309</v>
       </c>
       <c r="G40" t="n">
-        <v>191.3725408241454</v>
+        <v>148.4560415789309</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>148.4560415789309</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>1299.499495805762</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V40" t="n">
-        <v>1025.613750745284</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W40" t="n">
-        <v>746.5440862541582</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X40" t="n">
-        <v>746.5440862541582</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y40" t="n">
-        <v>746.5440862541582</v>
+        <v>497.0665631046558</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>492.6927300678241</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="C41" t="n">
-        <v>82.56813938109417</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D41" t="n">
-        <v>41.76508562960205</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E41" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L41" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M41" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N41" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O41" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P41" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7448,13 +7450,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.493980615271</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X41" t="n">
-        <v>1303.850582784223</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="Y41" t="n">
-        <v>902.9139097323135</v>
+        <v>1704.49398061527</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
         <v>234.5779431922353</v>
@@ -7494,22 +7496,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>690.384199457534</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N42" t="n">
-        <v>1192.007362767164</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="O42" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P42" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1015.393410077931</v>
+        <v>1197.926275311208</v>
       </c>
       <c r="C43" t="n">
-        <v>844.3000376396478</v>
+        <v>1026.832902872924</v>
       </c>
       <c r="D43" t="n">
-        <v>684.8053929625578</v>
+        <v>867.338258195834</v>
       </c>
       <c r="E43" t="n">
-        <v>523.8945778308773</v>
+        <v>706.4274430641535</v>
       </c>
       <c r="F43" t="n">
-        <v>359.2634519414686</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G43" t="n">
-        <v>192.013060867012</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H43" t="n">
-        <v>42.40560567246865</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T43" t="n">
-        <v>1485.891263925851</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U43" t="n">
-        <v>1203.093116471976</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="V43" t="n">
-        <v>1203.093116471976</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="W43" t="n">
-        <v>1203.093116471976</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.093116471976</v>
+        <v>1610.361680316487</v>
       </c>
       <c r="Y43" t="n">
-        <v>1203.093116471976</v>
+        <v>1385.625981705252</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>378.3299682426345</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="C44" t="n">
-        <v>378.3299682426345</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D44" t="n">
-        <v>31.21222238001735</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E44" t="n">
-        <v>31.21222238001735</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001735</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004863</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L44" t="n">
-        <v>671.6489458004863</v>
+        <v>216.5644706858343</v>
       </c>
       <c r="M44" t="n">
-        <v>671.6489458004863</v>
+        <v>216.5644706858343</v>
       </c>
       <c r="N44" t="n">
-        <v>812.642214563296</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="O44" t="n">
-        <v>1198.893466516011</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="V44" t="n">
-        <v>1560.611119000868</v>
+        <v>1380.929167557542</v>
       </c>
       <c r="W44" t="n">
-        <v>1560.611119000868</v>
+        <v>997.1688666927107</v>
       </c>
       <c r="X44" t="n">
-        <v>1166.517402081457</v>
+        <v>596.5254688616633</v>
       </c>
       <c r="Y44" t="n">
-        <v>772.4236851620456</v>
+        <v>439.0253456848109</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272179</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L45" t="n">
-        <v>31.21222238001735</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4634743327321</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N45" t="n">
-        <v>803.7147262854468</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O45" t="n">
-        <v>1189.965978238161</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1293.279245302185</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1293.279245302185</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1186.074038399415</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.748056538308</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.3460969021384</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.39789353288</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>766.5997460790038</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>492.7140010185257</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>213.6443365274001</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>31.21222238001735</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>339.7024893595822</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>535.5249675786654</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>395.5690244730511</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O3" t="n">
-        <v>266.9965351298661</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936598</v>
       </c>
       <c r="L5" t="n">
-        <v>298.736180582244</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8295,22 +8297,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>421.0562344946766</v>
+        <v>359.4030239885896</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M8" t="n">
-        <v>337.5073157537831</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8474,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,16 +8537,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>333.9158139669639</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O9" t="n">
-        <v>334.1030092285466</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8690,28 +8692,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421622</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P11" t="n">
-        <v>229.2480899138817</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>175.4852242574859</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>531.0119939709983</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9006,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>235.5014795744224</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,25 +9166,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>272.0504334731807</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>594.2603172363629</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
         <v>87.31214281472352</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491203</v>
       </c>
       <c r="P18" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9403,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>632.3252292139175</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896167</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>70.59911775623691</v>
       </c>
       <c r="M21" t="n">
-        <v>711.5386447282516</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>711.7258399898342</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>159.4973559226951</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9638,25 +9640,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.3876718871261</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9714,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>332.1773130131619</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747685</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9738,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,25 +9877,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421622</v>
       </c>
       <c r="M26" t="n">
-        <v>269.8552598673813</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P26" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
         <v>87.31214281472352</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>531.0119939709983</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009266</v>
       </c>
       <c r="P30" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10349,25 +10351,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>224.7351163062145</v>
       </c>
       <c r="L32" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10434,16 +10436,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P33" t="n">
-        <v>555.229727782121</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>593.882383535937</v>
+        <v>337.1293820533567</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
@@ -10665,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>329.5449236222964</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>422.1224761037303</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>339.7024893595822</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
         <v>87.31214281472352</v>
@@ -10902,28 +10904,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>170.9271386512354</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832875</v>
       </c>
       <c r="M41" t="n">
-        <v>594.2603172363631</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>559.8834573428708</v>
+        <v>67.67798733913774</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11160,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731805</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>235.3297339513765</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,25 +11381,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P45" t="n">
-        <v>398.7905657099514</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.4769184738868</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22601,16 +22603,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>164.5598817026041</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22705,19 +22707,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>28.83362056170989</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>82.68617307340644</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -22790,16 +22792,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22847,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>292.1226925944956</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23024,16 +23026,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>360.0242673938928</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>398.3024202793418</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23081,10 +23083,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23179,25 +23181,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>70.43669735679198</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23233,13 +23235,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>62.25435279695691</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23315,16 +23317,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>305.9441559029069</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>69.36064948372535</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>106.9127508000863</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23732,22 +23734,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>235.5214394514397</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23789,10 +23791,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23893,22 +23895,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>130.5980694576815</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>8.893130557884689</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>295.1990945544783</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24032,10 +24034,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24130,13 +24132,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>87.78115511140942</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.42914673112958</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24257,7 +24259,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -24266,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>93.44171763328416</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>277.8409721381277</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24446,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>295.9050193496288</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24509,7 +24511,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>32.85442112418148</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>128.6109572718663</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.55422061770378</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24737,7 +24739,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>338.5226315283815</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24746,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>8.565757352928586</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>157.1745055375997</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>13.55422061770372</v>
+        <v>409.0035603373465</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24983,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>213.2523287433239</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>38.4315128160363</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.77593127592985</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>37.88033340907481</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25315,22 +25317,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>135.7301496940236</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>116.5559239375743</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25400,16 +25402,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>122.0972153491931</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>96.14427702919691</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>9.558539046881563</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>392.0945749601207</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>360.0242673938928</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>16.88847700766161</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>114.5484705942792</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25849,10 +25851,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>56.77272220387903</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25880,10 +25882,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.774526571173908</v>
+        <v>241.0021843763069</v>
       </c>
     </row>
     <row r="45">
@@ -25998,13 +26000,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>104.9676817472931</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>542238.1904303996</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>542238.1904303996</v>
+        <v>542238.1904303994</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>542238.1904303996</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>600305.2075456026</v>
+        <v>542238.1904303996</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772050.1272208686</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542238.1904303996</v>
+        <v>542238.1904303994</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542238.1904303996</v>
+        <v>542238.1904303994</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542238.1904303996</v>
+        <v>542238.1904303993</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>542238.1904303996</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>542238.1904303996</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453241.0033945356</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
   </sheetData>
@@ -26329,22 +26331,22 @@
         <v>123668.3592209684</v>
       </c>
       <c r="H2" t="n">
-        <v>136911.7140016287</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="I2" t="n">
-        <v>176081.6079626543</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="J2" t="n">
         <v>123668.3592209684</v>
       </c>
       <c r="K2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="L2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="M2" t="n">
-        <v>123668.3592209683</v>
+        <v>123668.3592209684</v>
       </c>
       <c r="N2" t="n">
         <v>123668.3592209684</v>
@@ -26353,7 +26355,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="P2" t="n">
-        <v>103370.7551601573</v>
+        <v>123668.3592209684</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="C4" t="n">
+        <v>433.9049324434262</v>
+      </c>
+      <c r="D4" t="n">
         <v>433.9049324434263</v>
-      </c>
-      <c r="D4" t="n">
-        <v>433.9049324434264</v>
       </c>
       <c r="E4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="F4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="G4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="H4" t="n">
-        <v>496.2691564111234</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="I4" t="n">
-        <v>680.72393242782</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="J4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="K4" t="n">
         <v>433.9049324434263</v>
@@ -26454,10 +26456,10 @@
         <v>433.9049324434263</v>
       </c>
       <c r="O4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="P4" t="n">
-        <v>338.3215741009759</v>
+        <v>433.9049324434263</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-117090.1206830866</v>
       </c>
       <c r="C6" t="n">
-        <v>57865.3892100274</v>
+        <v>57865.38921002741</v>
       </c>
       <c r="D6" t="n">
-        <v>57865.38921002737</v>
+        <v>57865.38921002738</v>
       </c>
       <c r="E6" t="n">
-        <v>91492.98921002737</v>
+        <v>91492.98921002739</v>
       </c>
       <c r="F6" t="n">
+        <v>91492.98921002742</v>
+      </c>
+      <c r="G6" t="n">
+        <v>91492.98921002746</v>
+      </c>
+      <c r="H6" t="n">
+        <v>91492.98921002744</v>
+      </c>
+      <c r="I6" t="n">
+        <v>91492.98921002742</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-45101.81159586753</v>
+      </c>
+      <c r="K6" t="n">
+        <v>91492.9892100274</v>
+      </c>
+      <c r="L6" t="n">
+        <v>91492.98921002742</v>
+      </c>
+      <c r="M6" t="n">
+        <v>91492.98921002744</v>
+      </c>
+      <c r="N6" t="n">
+        <v>91492.9892100274</v>
+      </c>
+      <c r="O6" t="n">
         <v>91492.98921002743</v>
       </c>
-      <c r="G6" t="n">
-        <v>91492.98921002739</v>
-      </c>
-      <c r="H6" t="n">
-        <v>61063.08519069567</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8168.136529273921</v>
-      </c>
-      <c r="J6" t="n">
-        <v>91492.98921002742</v>
-      </c>
-      <c r="K6" t="n">
-        <v>91492.98921002736</v>
-      </c>
-      <c r="L6" t="n">
-        <v>91492.98921002736</v>
-      </c>
-      <c r="M6" t="n">
-        <v>91492.98921002736</v>
-      </c>
-      <c r="N6" t="n">
-        <v>91492.98921002739</v>
-      </c>
-      <c r="O6" t="n">
-        <v>91492.98921002737</v>
-      </c>
       <c r="P6" t="n">
-        <v>79311.14457724315</v>
+        <v>91492.98921002746</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O3" t="n">
-        <v>209.2450561298661</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="L5" t="n">
-        <v>203.2507825193992</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35015,22 +35017,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>367.8628411009266</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M8" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>276.3515302285465</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O9" t="n">
-        <v>276.3515302285466</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P11" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>117.7337452574859</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>179.3869557635733</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="P18" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>536.8398311510726</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>14.48459394538786</v>
       </c>
       <c r="M21" t="n">
-        <v>653.9743609898342</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>653.9743609898342</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>105.2377209198914</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.353867487974</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>276.3515302285465</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363511</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M26" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="P30" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="L32" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P33" t="n">
-        <v>500.9700927793172</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>500.9700927793177</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>276.3515302285464</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>244.2170912967373</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>117.7337452574854</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="M41" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>506.6900639491208</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>142.4174431947572</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P45" t="n">
-        <v>344.5309307071477</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438518.3920625235</v>
+        <v>432788.9962312964</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091066</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>89.93000512048089</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>6.338580986754886</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.733818067947911</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>187.2944320636239</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -879,10 +879,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>192.0241042587368</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>104.5142712582414</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1116,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>180.9351662108642</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.338580986754317</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.7228925766561</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868341</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>80.39790293131018</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1353,10 +1353,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>214.0246150492574</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>388.3430365919143</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>196.8413175710714</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -1548,7 +1548,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>27.89520210243912</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>28.11724303810194</v>
       </c>
       <c r="U14" t="n">
-        <v>147.5771360229987</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>27.77250173713422</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>346.6630339611676</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>181.2986684744096</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>27.30162877263755</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214523</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.3430365919143</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -2095,7 +2095,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>166.8806507775566</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>70.11854311890966</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>388.2474135039324</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>286.2137375321905</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>271.0770354214523</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>11.89439304893042</v>
+        <v>19.89843046229006</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>271.0770354214523</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.87738435325667</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>118.8328219983565</v>
       </c>
       <c r="V29" t="n">
-        <v>7.816547588502612</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.31383608752321</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.816547588502837</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>114.2880211813957</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>197.5289107028771</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>209.2346475205585</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>308.4588457078093</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214523</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>289.5630439302703</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>105.7788661369301</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3568,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>105.6240463898355</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>27.77250173713433</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.02439290772386</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>85.88606453247162</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.096337622853</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>227.0672929610288</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>64.70446839755407</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>155.9251219450839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4191,7 +4191,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214523</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1596.772494638468</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C2" t="n">
-        <v>1596.772494638468</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D2" t="n">
-        <v>1596.772494638468</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E2" t="n">
-        <v>1182.432279155364</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1054.568412147451</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4363,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1997.415892469515</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1997.415892469515</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.415892469515</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.772494638468</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.772494638468</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
+        <v>1025.008892784822</v>
+      </c>
+      <c r="N3" t="n">
         <v>1541.851827451147</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2058.694762117472</v>
       </c>
       <c r="O3" t="n">
         <v>2058.694762117472</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.7185867198192</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1569.412650868686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1383.020882748597</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1143.472143725299</v>
+        <v>1195.585919116601</v>
       </c>
       <c r="U4" t="n">
-        <v>860.673996271423</v>
+        <v>912.7877716627247</v>
       </c>
       <c r="V4" t="n">
-        <v>586.7882512109448</v>
+        <v>638.9020266022466</v>
       </c>
       <c r="W4" t="n">
-        <v>307.7185867198192</v>
+        <v>638.9020266022466</v>
       </c>
       <c r="X4" t="n">
-        <v>307.7185867198192</v>
+        <v>400.5581644619299</v>
       </c>
       <c r="Y4" t="n">
-        <v>307.7185867198192</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1171.526457795782</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>692.8507596625946</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
+        <v>558.6080202959273</v>
+      </c>
+      <c r="M5" t="n">
+        <v>558.6080202959273</v>
+      </c>
+      <c r="N5" t="n">
+        <v>692.8507596625949</v>
+      </c>
+      <c r="O5" t="n">
         <v>1209.69369432892</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1726.536628995245</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
         <v>1726.536628995245</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1894.29053980461</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1637.230048064121</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1637.230048064121</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1253.469747199289</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.684310512181</v>
+        <v>852.8263493682418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1581.747637460271</v>
+        <v>451.8896763163319</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585604</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M6" t="n">
-        <v>1268.263812524885</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960203</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960203</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4755,22 +4755,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>742.815603291408</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>742.815603291408</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960203</v>
+        <v>742.815603291408</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960203</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1277.096428763702</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="C8" t="n">
-        <v>866.9718380769724</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="D8" t="n">
-        <v>462.5079081700329</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="E8" t="n">
-        <v>48.16769268692963</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="F8" t="n">
-        <v>48.16769268692963</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959272</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M8" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N8" t="n">
-        <v>2047.697635790537</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.317608428192</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
         <v>234.5779431922353</v>
@@ -4889,19 +4889,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585604</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784821</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.851827451147</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.3531027449755</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4992,22 +4992,22 @@
         <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1303.562211169443</v>
       </c>
       <c r="U10" t="n">
-        <v>862.4253276531883</v>
+        <v>1020.764063715567</v>
       </c>
       <c r="V10" t="n">
-        <v>588.5395825927103</v>
+        <v>746.8783186550887</v>
       </c>
       <c r="W10" t="n">
-        <v>372.3531027449755</v>
+        <v>467.8086541639631</v>
       </c>
       <c r="X10" t="n">
-        <v>372.3531027449755</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.3531027449755</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1695.988587952916</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.863997266186</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.568412147451</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1571.411346813777</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N11" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
         <v>2088.254281480102</v>
@@ -5071,22 +5071,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.218183718808</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.218183718808</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.218183718808</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.414276561226</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="N12" t="n">
-        <v>1531.257211227551</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O12" t="n">
-        <v>2048.100145893876</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198192</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U13" t="n">
-        <v>1485.891263925851</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V13" t="n">
-        <v>1485.891263925851</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W13" t="n">
-        <v>1485.891263925851</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X13" t="n">
-        <v>1485.891263925851</v>
+        <v>707.2334534243269</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>707.2334534243269</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1171.477728391927</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C14" t="n">
-        <v>1171.477728391927</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D14" t="n">
-        <v>767.0137984849873</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E14" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F14" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O14" t="n">
         <v>2088.254281480102</v>
@@ -5308,22 +5308,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221061</v>
+        <v>1924.571950680161</v>
       </c>
       <c r="U14" t="n">
-        <v>1581.698908056416</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="V14" t="n">
-        <v>1581.698908056416</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="W14" t="n">
-        <v>1581.698908056416</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="X14" t="n">
-        <v>1581.698908056416</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y14" t="n">
-        <v>1581.698908056416</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959272</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959272</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N15" t="n">
-        <v>1054.568412147451</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O15" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5393,16 +5393,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1543.110950192741</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1303.562211169443</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1020.764063715567</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>746.8783186550887</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>467.8086541639631</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1354.656425951751</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C17" t="n">
-        <v>944.5318352650212</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D17" t="n">
-        <v>944.5318352650212</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E17" t="n">
-        <v>944.5318352650212</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F17" t="n">
-        <v>761.4018671090519</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G17" t="n">
         <v>352.673583001884</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M17" t="n">
-        <v>1054.568412147451</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N17" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O17" t="n">
         <v>2088.254281480102</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>1738.416726816582</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W17" t="n">
-        <v>1354.656425951751</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X17" t="n">
-        <v>1354.656425951751</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y17" t="n">
-        <v>1354.656425951751</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
         <v>234.5779431922353</v>
@@ -5600,22 +5600,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>690.384199457534</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N18" t="n">
-        <v>1207.227134123859</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O18" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1345.178620845658</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>1345.178620845658</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M19" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N19" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O19" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P19" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q19" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1901.862513360012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1901.862513360012</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1619.064365906136</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V19" t="n">
-        <v>1345.178620845658</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W19" t="n">
-        <v>1345.178620845658</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X19" t="n">
-        <v>1345.178620845658</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y19" t="n">
-        <v>1345.178620845658</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1695.988587952916</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C20" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>558.6080202959272</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N20" t="n">
-        <v>692.8507596625946</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O20" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5782,22 +5782,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
       <c r="Y20" t="n">
-        <v>2088.254281480102</v>
+        <v>1697.481483510237</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
         <v>234.5779431922353</v>
@@ -5837,19 +5837,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>704.723947463468</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>704.723947463468</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O21" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
         <v>2088.254281480102</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1388.428029276236</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>1388.428029276236</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1901.862513360012</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1662.313774336714</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U22" t="n">
-        <v>1662.313774336714</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V22" t="n">
-        <v>1388.428029276236</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W22" t="n">
-        <v>1388.428029276236</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X22" t="n">
-        <v>1388.428029276236</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y22" t="n">
-        <v>1388.428029276236</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1678.033101815612</v>
+        <v>330.8698710156531</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.863997266186</v>
+        <v>330.8698710156531</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>537.7254774811263</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>537.7254774811263</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M23" t="n">
-        <v>537.7254774811263</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N23" t="n">
-        <v>1054.568412147451</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O23" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
         <v>2088.254281480102</v>
@@ -6019,22 +6019,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>731.806544067563</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>330.8698710156531</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1659581184963</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>508.1659581184963</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.008892784821</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N24" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6177,22 +6177,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1571.163982250452</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V25" t="n">
-        <v>1571.163982250452</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W25" t="n">
-        <v>1571.163982250452</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X25" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y25" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1277.096428763702</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C26" t="n">
-        <v>866.9718380769724</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="D26" t="n">
-        <v>462.5079081700329</v>
+        <v>61.86451033898595</v>
       </c>
       <c r="E26" t="n">
-        <v>462.5079081700329</v>
+        <v>61.86451033898595</v>
       </c>
       <c r="F26" t="n">
-        <v>462.5079081700329</v>
+        <v>61.86451033898595</v>
       </c>
       <c r="G26" t="n">
-        <v>53.77962406286508</v>
+        <v>61.86451033898595</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>537.7254774811263</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M26" t="n">
-        <v>1054.568412147451</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N26" t="n">
+        <v>1329.636426430007</v>
+      </c>
+      <c r="O26" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P26" t="n">
         <v>2088.254281480102</v>
@@ -6268,10 +6268,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y26" t="n">
-        <v>1687.317608428192</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
@@ -6311,22 +6311,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>690.384199457534</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N27" t="n">
-        <v>690.384199457534</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O27" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P27" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1531.843189264714</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>1360.749816826431</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>1201.255172149341</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>1040.34435701766</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>875.7132311282514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>708.4628400537948</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M28" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N28" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O28" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P28" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q28" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>2088.254281480102</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V28" t="n">
-        <v>1814.368536419624</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W28" t="n">
-        <v>1814.368536419624</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X28" t="n">
-        <v>1814.368536419624</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y28" t="n">
-        <v>1719.542895658758</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1679.422105813543</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C29" t="n">
-        <v>1269.297515126813</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D29" t="n">
-        <v>864.8335852198732</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E29" t="n">
-        <v>450.4933697367699</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>497.1688317915614</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N29" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1610.733568687368</v>
       </c>
       <c r="V29" t="n">
-        <v>2080.358778865453</v>
+        <v>1260.896014023849</v>
       </c>
       <c r="W29" t="n">
-        <v>2080.358778865453</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="X29" t="n">
-        <v>2080.358778865453</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="Y29" t="n">
-        <v>1679.422105813543</v>
+        <v>877.1357131590178</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
         <v>234.5779431922353</v>
@@ -6548,16 +6548,16 @@
         <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1207.227134123859</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N30" t="n">
-        <v>1207.227134123859</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O30" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6648,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1384.772214130362</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U31" t="n">
-        <v>1384.772214130362</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V31" t="n">
-        <v>1384.772214130362</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W31" t="n">
-        <v>1384.772214130362</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X31" t="n">
-        <v>1384.772214130362</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y31" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1687.317608428192</v>
+        <v>561.671461174315</v>
       </c>
       <c r="C32" t="n">
-        <v>1277.193017741462</v>
+        <v>561.671461174315</v>
       </c>
       <c r="D32" t="n">
-        <v>872.7290878345225</v>
+        <v>157.2075312673755</v>
       </c>
       <c r="E32" t="n">
-        <v>458.3888723514192</v>
+        <v>157.2075312673755</v>
       </c>
       <c r="F32" t="n">
-        <v>450.4933697367699</v>
+        <v>157.2075312673755</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>157.2075312673755</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>176.0078249962694</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>692.8507596625946</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M32" t="n">
-        <v>692.8507596625946</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N32" t="n">
-        <v>692.8507596625946</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O32" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P32" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y32" t="n">
-        <v>1687.317608428192</v>
+        <v>561.671461174315</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>558.6080202959272</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N33" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O33" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
         <v>2088.254281480102</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.263917876656</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>362.1705454383725</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>202.6759007612825</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6882,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S34" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T34" t="n">
-        <v>1145.223475107064</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U34" t="n">
-        <v>1145.223475107064</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V34" t="n">
-        <v>1145.223475107064</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W34" t="n">
-        <v>1145.223475107064</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X34" t="n">
-        <v>945.6993228819357</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y34" t="n">
-        <v>720.9636242707004</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1776.679689856052</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="C35" t="n">
-        <v>1776.679689856052</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="D35" t="n">
-        <v>1372.215759949112</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E35" t="n">
-        <v>957.8755444660092</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F35" t="n">
-        <v>536.8451324196967</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G35" t="n">
         <v>128.1168483125289</v>
@@ -6934,19 +6934,19 @@
         <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>812.7934917636815</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L35" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M35" t="n">
-        <v>1846.479361096332</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N35" t="n">
         <v>2088.254281480102</v>
@@ -6964,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V35" t="n">
-        <v>1776.679689856052</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W35" t="n">
-        <v>1776.679689856052</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X35" t="n">
-        <v>1776.679689856052</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y35" t="n">
-        <v>1776.679689856052</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
@@ -7022,16 +7022,16 @@
         <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>690.384199457534</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.227134123859</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O36" t="n">
-        <v>1724.070068790184</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P36" t="n">
         <v>2088.254281480102</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7125,7 +7125,7 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1340.598203386633</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
         <v>1057.800055932758</v>
@@ -7140,7 +7140,7 @@
         <v>266.5007842408373</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>439.0253456848109</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="C38" t="n">
-        <v>439.0253456848109</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D38" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E38" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F38" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G38" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>537.7254774811263</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M38" t="n">
-        <v>1054.568412147451</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N38" t="n">
-        <v>1054.568412147451</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O38" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
         <v>2088.254281480102</v>
@@ -7204,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1866.047797426961</v>
+        <v>1981.40694194785</v>
       </c>
       <c r="V38" t="n">
-        <v>1516.210242763441</v>
+        <v>1631.56938728433</v>
       </c>
       <c r="W38" t="n">
-        <v>1132.44994189861</v>
+        <v>1247.809086419499</v>
       </c>
       <c r="X38" t="n">
-        <v>1132.44994189861</v>
+        <v>847.1656885884514</v>
       </c>
       <c r="Y38" t="n">
-        <v>731.5132688467</v>
+        <v>446.2290155365415</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1014.414276561226</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N39" t="n">
-        <v>1531.257211227551</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O39" t="n">
-        <v>2048.100145893876</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>309.3668567106114</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>309.3668567106114</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>309.3668567106114</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>148.4560415789309</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>148.4560415789309</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>148.4560415789309</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>148.4560415789309</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7362,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1014.480089736098</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>735.4104252449724</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>497.0665631046558</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>497.0665631046558</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1690.327927173125</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="C41" t="n">
-        <v>1690.327927173125</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.863997266186</v>
+        <v>549.5490982137646</v>
       </c>
       <c r="E41" t="n">
-        <v>871.5237817830823</v>
+        <v>549.5490982137646</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>128.5186861674522</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960203</v>
+        <v>128.5186861674522</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N41" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O41" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7447,16 +7447,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.49398061527</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X41" t="n">
-        <v>1704.49398061527</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y41" t="n">
-        <v>1704.49398061527</v>
+        <v>954.0130281207041</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>1207.227134123859</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M42" t="n">
-        <v>1724.070068790184</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N42" t="n">
-        <v>1738.409816796118</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O42" t="n">
-        <v>1738.409816796118</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1197.926275311208</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>1026.832902872924</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>867.338258195834</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>706.4274430641535</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1848.705542456804</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>1848.705542456804</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>1848.705542456804</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>1848.705542456804</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>1610.361680316487</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y43" t="n">
-        <v>1385.625981705252</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>439.0253456848109</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="C44" t="n">
-        <v>439.0253456848109</v>
+        <v>936.8818306695006</v>
       </c>
       <c r="D44" t="n">
-        <v>439.0253456848109</v>
+        <v>936.8818306695006</v>
       </c>
       <c r="E44" t="n">
-        <v>439.0253456848109</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F44" t="n">
-        <v>439.0253456848109</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G44" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>216.5644706858343</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>216.5644706858343</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N44" t="n">
-        <v>733.4074053521595</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O44" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
         <v>2088.254281480102</v>
@@ -7678,22 +7678,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U44" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V44" t="n">
-        <v>1380.929167557542</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W44" t="n">
-        <v>997.1688666927107</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X44" t="n">
-        <v>596.5254688616633</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y44" t="n">
-        <v>439.0253456848109</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>537.7254774811263</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1054.568412147451</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N45" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O45" t="n">
         <v>2088.254281480102</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7839,19 +7839,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1048.817095773278</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V46" t="n">
-        <v>774.9313507128002</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W46" t="n">
-        <v>495.8616862216745</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X46" t="n">
-        <v>257.5178240813579</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595822</v>
+        <v>298.736180582244</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>395.5690244730511</v>
+        <v>68.26591628750424</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>490.0456851936598</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>236.9512395019908</v>
       </c>
       <c r="N6" t="n">
-        <v>359.4030239885896</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8537,22 +8537,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>333.9158139669639</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>502.788332443033</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>596.4554908421622</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8771,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>175.2980289959028</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>94.81936791818303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>175.2980289959033</v>
       </c>
       <c r="N15" t="n">
-        <v>554.1634861730674</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>594.2603172363629</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9248,25 +9248,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O18" t="n">
-        <v>564.4415429491203</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>228.5110173896167</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,22 +9485,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>70.59911775623691</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>590.1064824525346</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
@@ -9719,19 +9719,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>332.1773130131619</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9740,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>596.4554908421622</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958086</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
         <v>90.03380439915205</v>
@@ -9959,25 +9959,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O27" t="n">
-        <v>564.4415429491204</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10135,7 +10135,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,19 +10196,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O30" t="n">
-        <v>425.6143201009266</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>224.7351163062145</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10588,16 +10588,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432425</v>
+        <v>333.3534809699548</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N35" t="n">
-        <v>337.1293820533567</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O35" t="n">
         <v>93.18977562578313</v>
@@ -10670,19 +10670,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>422.1224761037303</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10825,22 +10825,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>339.7024893595822</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>94.81936791818303</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11062,28 +11062,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>496.3946935832875</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O41" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>67.67798733913774</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>362.9022490996783</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
-        <v>272.0504334731805</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11375,22 +11375,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22603,19 +22603,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>164.5598817026041</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>373.5841168694282</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -22722,10 +22722,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>82.68617307340644</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>49.85881956944101</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,10 +22767,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22837,19 +22837,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>27.96031495387294</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>292.1226925944956</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130049</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>41.55317541425873</v>
       </c>
     </row>
     <row r="8">
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>398.3024202793418</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>13.0765198219031</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -23232,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>156.7553487017547</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23241,10 +23241,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>62.25435279695691</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.7759312759303</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23311,10 +23311,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>57.6485692520136</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23323,7 +23323,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -23472,19 +23472,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>208.0652214164743</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23512,7 +23512,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>191.8671761745078</v>
       </c>
       <c r="U14" t="n">
-        <v>106.9127508000863</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>156.7553487017546</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23734,19 +23734,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>53.75625664670241</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>235.5214394514397</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23895,22 +23895,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>130.5980694576815</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>8.893130557884774</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.7759312759303</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24022,10 +24022,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>87.60923604552838</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>87.78115511140942</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>17.77593127593013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>114.2055530756795</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24259,22 +24259,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884774</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>295.9050193496288</v>
+        <v>287.9009819362691</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24508,7 +24508,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6109572718663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>135.6570648247285</v>
       </c>
       <c r="V29" t="n">
-        <v>338.5226315283815</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.1745055375997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>409.0035603373465</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>193.5113912171634</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>38.4315128160363</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>191.1846430873116</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>37.88033340907481</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25365,10 +25365,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>8.893130557884774</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>116.5559239375743</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25408,10 +25408,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>148.7110206861549</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25569,7 +25569,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>9.558539046881563</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>194.7158398879886</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>392.0945749601207</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>221.9133478660876</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25687,13 +25687,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>16.88847700766161</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>345.4923449307182</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0021843763069</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>8.893130557884774</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884632</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>542238.1904303995</v>
+        <v>542238.1904303996</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>542238.1904303994</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>542238.1904303996</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>542238.1904303995</v>
+        <v>542238.1904303996</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542238.1904303994</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>542238.1904303994</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>542238.1904303993</v>
+        <v>542238.1904303995</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>542238.1904303995</v>
+        <v>542238.1904303996</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123668.3592209684</v>
+        <v>123668.3592209683</v>
       </c>
       <c r="C2" t="n">
         <v>123668.3592209684</v>
@@ -26328,7 +26328,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="G2" t="n">
-        <v>123668.3592209684</v>
+        <v>123668.3592209683</v>
       </c>
       <c r="H2" t="n">
         <v>123668.3592209684</v>
@@ -26349,7 +26349,7 @@
         <v>123668.3592209684</v>
       </c>
       <c r="N2" t="n">
-        <v>123668.3592209684</v>
+        <v>123668.3592209683</v>
       </c>
       <c r="O2" t="n">
         <v>123668.3592209684</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>433.9049324434263</v>
       </c>
       <c r="C4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="D4" t="n">
         <v>433.9049324434263</v>
@@ -26429,7 +26429,7 @@
         <v>433.9049324434263</v>
       </c>
       <c r="F4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="G4" t="n">
         <v>433.9049324434263</v>
@@ -26441,7 +26441,7 @@
         <v>433.9049324434263</v>
       </c>
       <c r="J4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="K4" t="n">
         <v>433.9049324434263</v>
@@ -26450,13 +26450,13 @@
         <v>433.9049324434263</v>
       </c>
       <c r="M4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="N4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="O4" t="n">
-        <v>433.9049324434262</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="P4" t="n">
         <v>433.9049324434263</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117090.1206830866</v>
+        <v>-117767.6495424808</v>
       </c>
       <c r="C6" t="n">
-        <v>57865.38921002741</v>
+        <v>57187.86035063335</v>
       </c>
       <c r="D6" t="n">
-        <v>57865.38921002738</v>
+        <v>57187.86035063336</v>
       </c>
       <c r="E6" t="n">
-        <v>91492.98921002739</v>
+        <v>90815.46035063335</v>
       </c>
       <c r="F6" t="n">
-        <v>91492.98921002742</v>
+        <v>90815.46035063335</v>
       </c>
       <c r="G6" t="n">
-        <v>91492.98921002746</v>
+        <v>90815.46035063331</v>
       </c>
       <c r="H6" t="n">
-        <v>91492.98921002744</v>
+        <v>90815.46035063334</v>
       </c>
       <c r="I6" t="n">
-        <v>91492.98921002742</v>
+        <v>90815.46035063332</v>
       </c>
       <c r="J6" t="n">
-        <v>-45101.81159586753</v>
+        <v>-45779.34045526165</v>
       </c>
       <c r="K6" t="n">
-        <v>91492.9892100274</v>
+        <v>90815.46035063332</v>
       </c>
       <c r="L6" t="n">
-        <v>91492.98921002742</v>
+        <v>90815.46035063332</v>
       </c>
       <c r="M6" t="n">
-        <v>91492.98921002744</v>
+        <v>90815.46035063332</v>
       </c>
       <c r="N6" t="n">
-        <v>91492.9892100274</v>
+        <v>90815.46035063331</v>
       </c>
       <c r="O6" t="n">
-        <v>91492.98921002743</v>
+        <v>90815.46035063332</v>
       </c>
       <c r="P6" t="n">
-        <v>91492.98921002746</v>
+        <v>90815.46035063334</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967374</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>338.0047407346337</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>400.9092955204426</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>179.3869557635733</v>
       </c>
       <c r="N6" t="n">
-        <v>306.2096305948396</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>276.3515302285465</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>445.036853443033</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="N15" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O18" t="n">
-        <v>506.6900639491203</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>135.5987266329973</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>14.48459394538786</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>276.3515302285465</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O27" t="n">
-        <v>506.6900639491204</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O30" t="n">
-        <v>367.8628411009266</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N35" t="n">
-        <v>244.2170912967374</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>367.8628411009266</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>244.2170912967373</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>400.9092955204427</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>14.48459394538775</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
-        <v>176.5650354103356</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
